--- a/tut06/output/2001ME33.xlsx
+++ b/tut06/output/2001ME33.xlsx
@@ -511,10 +511,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -526,10 +526,10 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -646,10 +646,10 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -694,10 +694,10 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
